--- a/DsAlgoTest/src/test/resources/Test_Data/Linked_listCode.xlsx
+++ b/DsAlgoTest/src/test/resources/Test_Data/Linked_listCode.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyanka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyanka/git/TeamNinja/DsAlgoTest/src/test/resources/Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE75DAE9-9EA6-114B-9B25-7896E5E947B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98085D-1C60-4749-B6D3-AF1D10FFD30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="832" activeTab="6" xr2:uid="{49A1DBEC-2F68-40F0-8BCE-B26026D8BC93}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="832" xr2:uid="{49A1DBEC-2F68-40F0-8BCE-B26026D8BC93}"/>
   </bookViews>
   <sheets>
-    <sheet name="LLIntroduction" sheetId="1" r:id="rId1"/>
-    <sheet name="LLCLinkedList" sheetId="2" r:id="rId2"/>
-    <sheet name="LLTyLinkedList" sheetId="3" r:id="rId3"/>
-    <sheet name="LLILinkedList" sheetId="4" r:id="rId4"/>
-    <sheet name="LLTLinkedList" sheetId="5" r:id="rId5"/>
-    <sheet name="LLInsertion" sheetId="8" r:id="rId6"/>
-    <sheet name="LLDeletion" sheetId="9" r:id="rId7"/>
+    <sheet name="LLCLinkedList" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>print "hello world "</t>
   </si>
@@ -401,205 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F4DE8A-E942-4FB4-B9FB-4DFC234F33D4}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B3C80-150E-49F7-A3D5-2F73264C7A23}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2894E362-75B4-4463-9AE7-07BA9573CC0B}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA03215-D2A5-4473-B2F2-3C1032DCD576}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5901E229-05EB-4D35-BFE2-4A05CBC9AED8}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8A05E-34C3-48E3-A902-94C5705D6C37}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E276572-0223-4BE9-AF51-BA9EF5F229DA}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
